--- a/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC42_Verify_PlaceOrder_SelfService_SingleUser.xlsx
+++ b/Input_files/Actual_testcases/Kaman/LogixalQABox2/ALL_PAGES/END_TO_END/TC42_Verify_PlaceOrder_SelfService_SingleUser.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\Kaman Old data files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88B40A5-1AD0-4954-8464-7905DC1CFEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TC42_Verify_PlaceOrder_SS_SU" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="120">
   <si>
     <t>TestCase</t>
   </si>
@@ -237,6 +231,9 @@
   </si>
   <si>
     <t>Autotest@kaman.com</t>
+  </si>
+  <si>
+    <t>Autotest</t>
   </si>
   <si>
     <t>Auto</t>
@@ -371,37 +368,31 @@
     <t>$SelfService_SU_Password</t>
   </si>
   <si>
+    <t>CLICK_JS</t>
+  </si>
+  <si>
+    <t>EnableCertificate_MoreInfo</t>
+  </si>
+  <si>
+    <t>JS_ID</t>
+  </si>
+  <si>
     <t>EleType1</t>
   </si>
   <si>
+    <t>EnableCertificate_GoTOPage</t>
+  </si>
+  <si>
     <t>EleType2</t>
   </si>
   <si>
     <t>JSElement</t>
-  </si>
-  <si>
-    <t>AUTOTEST</t>
-  </si>
-  <si>
-    <t>ConfirmationMessage</t>
-  </si>
-  <si>
-    <t>CLICK_JS</t>
-  </si>
-  <si>
-    <t>EnableCertificate_MoreInfo</t>
-  </si>
-  <si>
-    <t>JS_ID</t>
-  </si>
-  <si>
-    <t>EnableCertificate_GoTOPage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -845,11 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -880,7 +871,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -894,19 +885,19 @@
     <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>47</v>
@@ -915,19 +906,19 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
@@ -945,10 +936,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -958,10 +949,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -974,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -989,7 +980,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
@@ -1001,10 +992,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -1026,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1048,7 +1039,7 @@
         <v>34</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1061,7 +1052,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1074,7 +1065,7 @@
         <v>39</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1087,7 +1078,7 @@
         <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1103,7 +1094,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
@@ -1118,7 +1109,7 @@
         <v>45</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -1140,7 +1131,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -1153,7 +1144,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -1172,17 +1163,17 @@
         <v>12</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1203,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -1216,19 +1207,19 @@
         <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -1237,7 +1228,7 @@
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -1249,23 +1240,23 @@
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3"/>
     </row>
@@ -1275,25 +1266,25 @@
         <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -1303,25 +1294,25 @@
         <v>70</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -1331,44 +1322,54 @@
         <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="5" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E41" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5">
@@ -1377,106 +1378,102 @@
         <v>70</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>100</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>90</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3"/>
@@ -1487,7 +1484,7 @@
         <v>92</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>92</v>
@@ -1496,101 +1493,59 @@
     <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3"/>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3"/>
-      <c r="B55" s="5" t="s">
-        <v>12</v>
+      <c r="B55" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E55" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="3"/>
-      <c r="B58" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E59" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>116</v>
+      <c r="D56" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1602,16 +1557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1628,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5">
@@ -1636,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1644,7 +1599,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1900,7 +1855,7 @@
         <v>61</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1908,7 +1863,7 @@
         <v>62</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1916,7 +1871,7 @@
         <v>63</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1924,7 +1879,7 @@
         <v>64</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1932,7 +1887,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1940,7 +1895,7 @@
         <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1956,7 +1911,7 @@
         <v>68</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1969,15 +1924,15 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B46" s="3" t="b">
         <v>1</v>
@@ -1985,7 +1940,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B47" s="3" t="b">
         <v>1</v>
@@ -1993,7 +1948,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="3" t="b">
         <v>1</v>
@@ -2001,15 +1956,15 @@
     </row>
     <row r="49" spans="1:2" ht="13.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B50" s="3">
         <v>12</v>
@@ -2017,7 +1972,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B51" s="3">
         <v>26</v>
@@ -2025,15 +1980,15 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>115</v>
+        <v>87</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B53" s="3">
         <v>123</v>
@@ -2041,7 +1996,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="3" t="b">
         <v>1</v>
@@ -2049,7 +2004,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="3" t="b">
         <v>1</v>
@@ -2057,7 +2012,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3" t="b">
         <v>1</v>
@@ -2065,15 +2020,15 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" s="3" t="b">
-        <v>1</v>
+        <v>97</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="3" t="b">
         <v>1</v>
@@ -2084,28 +2039,20 @@
         <v>116</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B35" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B35" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -2113,6 +2060,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -2309,15 +2265,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2325,6 +2272,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2343,14 +2298,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
